--- a/Excels/data/2007.xlsx
+++ b/Excels/data/2007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2212C469-46B1-4EFE-9C90-FC1A76176DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A6383-87DC-40F8-957A-769FF1F91A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="3015" windowWidth="16200" windowHeight="9360" activeTab="2" xr2:uid="{63D6ECFB-A326-43A5-8042-8CF02CDC9C93}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{63D6ECFB-A326-43A5-8042-8CF02CDC9C93}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="181">
   <si>
     <t>Round</t>
   </si>
@@ -647,6 +647,12 @@
   </si>
   <si>
     <t>riders</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -699,15 +705,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -865,8 +875,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{1EC72928-11D1-4339-866E-DBF52A93F56D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -874,6 +884,7 @@
       <queryTableField id="5" name="No." tableColumnId="5"/>
       <queryTableField id="6" name="Rider" tableColumnId="6"/>
       <queryTableField id="7" name="Rounds" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -889,9 +900,9 @@
   <autoFilter ref="A1:D19" xr:uid="{CAF26C7A-95BD-4A69-A932-314F93CE6848}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0C1FE399-05E1-4E45-B47C-C823B44CACDA}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{D6474EEC-D650-4284-8B5A-7A5ADAB9E879}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{A353DE5A-71EA-4428-B5C8-E77C87366139}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{A86965DB-13EF-4DEC-AF23-9264A2BD90D2}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{D6474EEC-D650-4284-8B5A-7A5ADAB9E879}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{A353DE5A-71EA-4428-B5C8-E77C87366139}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{A86965DB-13EF-4DEC-AF23-9264A2BD90D2}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -902,27 +913,27 @@
   <autoFilter ref="A1:W34" xr:uid="{8A26E936-3CC3-44C2-9874-73181A0487FD}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{E12C0F67-F956-45E9-8613-2C6017A42A8F}" uniqueName="1" name="Pos" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{18E68691-C9B5-4447-AB91-20DC39F9B603}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{590125FA-273A-4429-A113-574E41684F0A}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{C52EB950-F9F3-4A83-8591-1E8052B91E05}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{C9E58F44-3B91-407E-BC81-EE38F6B03161}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{52150A3B-F6D6-4152-A076-F4FB0C4B8581}" uniqueName="6" name="ESP" queryTableFieldId="6" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{D7F06150-6B0C-4515-9238-50063DDCF614}" uniqueName="7" name="TUR" queryTableFieldId="7" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{DAADB3C8-7434-417A-966F-027C55481B04}" uniqueName="8" name="CHN" queryTableFieldId="8" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{116A61DB-A277-4397-95DE-276EB6218C71}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{468E2CA9-D5E2-41AA-B7B2-12F0BCEF7E1E}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{5D19F998-EEC6-4150-A386-77C727AA7C81}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{D9E9C69E-7AC7-4F73-8F2D-1AF82C8EF906}" uniqueName="12" name="GBR" queryTableFieldId="12" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{751519D3-43F8-47B2-A9EA-CC43379F9C34}" uniqueName="13" name="NED" queryTableFieldId="13" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{890BB609-0713-4F7F-8782-4F8CD83FD3D4}" uniqueName="14" name="GER" queryTableFieldId="14" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{A6B7D49E-A082-4625-9D7B-82FCFBDDFDC8}" uniqueName="15" name="USA" queryTableFieldId="15" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{B8597C82-4F19-4DFB-A9FC-0884FF13CBA8}" uniqueName="16" name="CZE" queryTableFieldId="16" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{C4E60BA9-E152-465B-AD57-39E13CB3CBEE}" uniqueName="17" name="SMR" queryTableFieldId="17" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{E2B3A3A7-EB2E-4733-B566-BAE9C5D2EBC2}" uniqueName="18" name="POR" queryTableFieldId="18" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{A14EA3DB-3020-4EE9-A952-0C8ABF20D681}" uniqueName="19" name="JPN" queryTableFieldId="19" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{86558729-793B-4691-81D9-DB14C39C4552}" uniqueName="20" name="AUS" queryTableFieldId="20" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{18E68691-C9B5-4447-AB91-20DC39F9B603}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{590125FA-273A-4429-A113-574E41684F0A}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{C52EB950-F9F3-4A83-8591-1E8052B91E05}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{C9E58F44-3B91-407E-BC81-EE38F6B03161}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{52150A3B-F6D6-4152-A076-F4FB0C4B8581}" uniqueName="6" name="ESP" queryTableFieldId="6" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{D7F06150-6B0C-4515-9238-50063DDCF614}" uniqueName="7" name="TUR" queryTableFieldId="7" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{DAADB3C8-7434-417A-966F-027C55481B04}" uniqueName="8" name="CHN" queryTableFieldId="8" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{116A61DB-A277-4397-95DE-276EB6218C71}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{468E2CA9-D5E2-41AA-B7B2-12F0BCEF7E1E}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{5D19F998-EEC6-4150-A386-77C727AA7C81}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{D9E9C69E-7AC7-4F73-8F2D-1AF82C8EF906}" uniqueName="12" name="GBR" queryTableFieldId="12" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{751519D3-43F8-47B2-A9EA-CC43379F9C34}" uniqueName="13" name="NED" queryTableFieldId="13" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{890BB609-0713-4F7F-8782-4F8CD83FD3D4}" uniqueName="14" name="GER" queryTableFieldId="14" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{A6B7D49E-A082-4625-9D7B-82FCFBDDFDC8}" uniqueName="15" name="USA" queryTableFieldId="15" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{B8597C82-4F19-4DFB-A9FC-0884FF13CBA8}" uniqueName="16" name="CZE" queryTableFieldId="16" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{C4E60BA9-E152-465B-AD57-39E13CB3CBEE}" uniqueName="17" name="SMR" queryTableFieldId="17" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{E2B3A3A7-EB2E-4733-B566-BAE9C5D2EBC2}" uniqueName="18" name="POR" queryTableFieldId="18" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{A14EA3DB-3020-4EE9-A952-0C8ABF20D681}" uniqueName="19" name="JPN" queryTableFieldId="19" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{86558729-793B-4691-81D9-DB14C39C4552}" uniqueName="20" name="AUS" queryTableFieldId="20" dataDxfId="8"/>
     <tableColumn id="21" xr3:uid="{3A120EF5-6F19-4AD2-97C5-F6EB6C86F5DA}" uniqueName="21" name="MAL" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{CE4FDB36-01BA-4FB1-9251-89A866A03487}" uniqueName="22" name="VAL" queryTableFieldId="22" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{CE4FDB36-01BA-4FB1-9251-89A866A03487}" uniqueName="22" name="VAL" queryTableFieldId="22" dataDxfId="7"/>
     <tableColumn id="23" xr3:uid="{FD3E57D3-610A-4454-BEF0-CEB97EEA3FA1}" uniqueName="23" name="Pts" queryTableFieldId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -930,16 +941,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162F5100-B791-4BEF-88A8-4939CEB5E66B}" name="Table_2" displayName="Table_2" ref="A1:G35" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G35" xr:uid="{162F5100-B791-4BEF-88A8-4939CEB5E66B}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{395DB6E5-8779-4E05-A971-F061B558A7D7}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BD8AAABD-4E7F-4DF5-8D26-2EF6BACCD0FB}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{23B8CA2A-6E82-4C28-A87E-CB2DAC25A9BE}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FA0F4EFE-7793-4358-A43B-791EF280726C}" uniqueName="4" name="Tyre" queryTableFieldId="4" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{162F5100-B791-4BEF-88A8-4939CEB5E66B}" name="Table_2" displayName="Table_2" ref="A1:H35" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H35" xr:uid="{162F5100-B791-4BEF-88A8-4939CEB5E66B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{395DB6E5-8779-4E05-A971-F061B558A7D7}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{BD8AAABD-4E7F-4DF5-8D26-2EF6BACCD0FB}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{23B8CA2A-6E82-4C28-A87E-CB2DAC25A9BE}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FA0F4EFE-7793-4358-A43B-791EF280726C}" uniqueName="4" name="Tyre" queryTableFieldId="4" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{8D7ABECB-6F3A-4642-96B8-F3988E8AF8E6}" uniqueName="5" name="No." queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{F00D3B86-238D-447C-BD58-F30D951462DB}" uniqueName="6" name="Rider" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{4F19AF91-A159-474E-A1E4-95A1BD51A38A}" uniqueName="7" name="Rounds" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F00D3B86-238D-447C-BD58-F30D951462DB}" uniqueName="6" name="Rider" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{4F19AF91-A159-474E-A1E4-95A1BD51A38A}" uniqueName="7" name="Rounds" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{1A7EE4F2-CF93-4926-9C03-3492F24A0FBC}" uniqueName="8" name="class" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3241,10 +3253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78BDF83-DE2B-4379-B9F5-81D32C7515F9}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,7 +3270,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -3280,8 +3292,11 @@
       <c r="G1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -3303,8 +3318,11 @@
       <c r="G2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -3326,8 +3344,11 @@
       <c r="G3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -3349,8 +3370,11 @@
       <c r="G4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -3372,8 +3396,11 @@
       <c r="G5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3395,8 +3422,11 @@
       <c r="G6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -3418,8 +3448,11 @@
       <c r="G7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -3441,8 +3474,11 @@
       <c r="G8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -3464,8 +3500,11 @@
       <c r="G9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -3487,8 +3526,11 @@
       <c r="G10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -3510,8 +3552,11 @@
       <c r="G11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -3533,8 +3578,11 @@
       <c r="G12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3556,8 +3604,11 @@
       <c r="G13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -3579,8 +3630,11 @@
       <c r="G14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3602,8 +3656,11 @@
       <c r="G15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -3625,8 +3682,11 @@
       <c r="G16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -3648,8 +3708,11 @@
       <c r="G17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -3671,8 +3734,11 @@
       <c r="G18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -3694,8 +3760,11 @@
       <c r="G19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -3717,8 +3786,11 @@
       <c r="G20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -3740,8 +3812,11 @@
       <c r="G21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -3763,8 +3838,11 @@
       <c r="G22" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -3786,8 +3864,11 @@
       <c r="G23" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -3809,8 +3890,11 @@
       <c r="G24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -3832,8 +3916,11 @@
       <c r="G25" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -3855,8 +3942,11 @@
       <c r="G26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -3878,8 +3968,11 @@
       <c r="G27" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -3901,8 +3994,11 @@
       <c r="G28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -3924,8 +4020,11 @@
       <c r="G29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -3947,8 +4046,11 @@
       <c r="G30" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -3970,8 +4072,11 @@
       <c r="G31" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -3993,8 +4098,11 @@
       <c r="G32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -4016,8 +4124,11 @@
       <c r="G33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -4039,8 +4150,11 @@
       <c r="G34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -4061,6 +4175,9 @@
       </c>
       <c r="G35" t="s">
         <v>69</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/data/2007.xlsx
+++ b/Excels/data/2007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E52216-D079-40B9-AEE3-F918A71DDAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB48842D-E599-4B85-BD6F-9E57F813B612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18075" windowHeight="12255" tabRatio="860" firstSheet="1" activeTab="3" xr2:uid="{63D6ECFB-A326-43A5-8042-8CF02CDC9C93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="860" firstSheet="1" activeTab="9" xr2:uid="{63D6ECFB-A326-43A5-8042-8CF02CDC9C93}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="513">
   <si>
     <t>Round</t>
   </si>
@@ -1758,6 +1758,9 @@
   </si>
   <si>
     <t>250cc</t>
+  </si>
+  <si>
+    <t>Raffaele de Rosa</t>
   </si>
 </sst>
 </file>
@@ -3026,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4DDF25-F4A9-4171-85B0-008CA99D22AD}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,7 +4006,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>346</v>
+        <v>512</v>
       </c>
       <c r="B17" t="s">
         <v>510</v>
@@ -9027,7 +9030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3711A35-BB98-49DF-9DFC-ECC372F88A86}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -19610,7 +19613,7 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20369,7 +20372,7 @@
         <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>346</v>
+        <v>512</v>
       </c>
       <c r="G29" t="s">
         <v>185</v>

--- a/Excels/data/2007.xlsx
+++ b/Excels/data/2007.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB48842D-E599-4B85-BD6F-9E57F813B612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E93E2CC-4697-48E8-8C2D-B4D928240932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="860" firstSheet="1" activeTab="9" xr2:uid="{63D6ECFB-A326-43A5-8042-8CF02CDC9C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" tabRatio="860" firstSheet="2" activeTab="9" xr2:uid="{63D6ECFB-A326-43A5-8042-8CF02CDC9C93}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4DDF25-F4A9-4171-85B0-008CA99D22AD}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,11 +3158,8 @@
       <c r="L2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>164</v>
@@ -3171,12 +3168,15 @@
         <v>164</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3217,17 +3217,14 @@
       <c r="L3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>162</v>
@@ -3236,6 +3233,9 @@
         <v>162</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3276,25 +3276,25 @@
       <c r="L4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3335,25 +3335,25 @@
       <c r="L5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3394,25 +3394,25 @@
       <c r="L6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3453,25 +3453,25 @@
       <c r="L7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="O7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3512,25 +3512,25 @@
       <c r="L8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="N8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="P8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3571,25 +3571,25 @@
       <c r="L9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="N9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3630,25 +3630,25 @@
       <c r="L10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="Q10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="S10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3689,25 +3689,25 @@
       <c r="L11" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="Q11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3746,9 +3746,6 @@
       <c r="L12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="N12" s="1" t="s">
         <v>93</v>
       </c>
@@ -3756,15 +3753,18 @@
         <v>93</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3805,25 +3805,25 @@
       <c r="L13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="P13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="S13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3864,25 +3864,25 @@
       <c r="L14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3923,25 +3923,25 @@
       <c r="L15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="P15" s="2" t="s">
         <v>166</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="S15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3982,9 +3982,6 @@
       <c r="L16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="N16" s="1" t="s">
         <v>166</v>
       </c>
@@ -3992,19 +3989,22 @@
         <v>166</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="R16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>512</v>
       </c>
@@ -4041,29 +4041,29 @@
       <c r="L17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>171</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>166</v>
       </c>
       <c r="R17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>360</v>
       </c>
@@ -4098,29 +4098,29 @@
       <c r="L18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>174</v>
       </c>
       <c r="S18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>333</v>
       </c>
@@ -4143,27 +4143,27 @@
       <c r="L19" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="R19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="S19" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>309</v>
       </c>
@@ -4200,29 +4200,29 @@
       <c r="L20" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="Q20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>338</v>
       </c>
@@ -4259,29 +4259,29 @@
       <c r="L21" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="N21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>306</v>
       </c>
@@ -4318,29 +4318,29 @@
       <c r="L22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="R22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>327</v>
       </c>
@@ -4377,29 +4377,29 @@
       <c r="L23" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="P23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>349</v>
       </c>
@@ -4436,29 +4436,29 @@
       <c r="L24" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="P24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="S24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>336</v>
       </c>
@@ -4493,27 +4493,27 @@
       <c r="L25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="O25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>343</v>
       </c>
@@ -4550,29 +4550,29 @@
       <c r="L26" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="P26" s="1" t="s">
         <v>166</v>
       </c>
       <c r="Q26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>353</v>
       </c>
@@ -4609,29 +4609,29 @@
       <c r="L27" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="R27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>399</v>
       </c>
@@ -4650,15 +4650,15 @@
       <c r="L28" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>365</v>
       </c>
@@ -4679,15 +4679,15 @@
         <v>479</v>
       </c>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>347</v>
       </c>
@@ -4724,29 +4724,29 @@
       <c r="L30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="Q30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>358</v>
       </c>
@@ -4783,29 +4783,29 @@
       <c r="L31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="N31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="Q31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="S31" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>351</v>
       </c>
@@ -4842,27 +4842,27 @@
       <c r="L32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>310</v>
       </c>
@@ -4899,29 +4899,29 @@
       <c r="L33" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="S33" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>369</v>
       </c>
@@ -4942,19 +4942,19 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="P34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1" t="s">
+      <c r="S34" s="1"/>
+      <c r="T34" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>379</v>
       </c>
@@ -4973,17 +4973,17 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2" t="s">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>215</v>
       </c>
@@ -5020,23 +5020,23 @@
       <c r="L36" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="O36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q36" s="1"/>
+      <c r="Q36" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>415</v>
       </c>
@@ -5053,17 +5053,17 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2" t="s">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>331</v>
       </c>
@@ -5100,19 +5100,19 @@
       <c r="L38" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>408</v>
       </c>
@@ -5129,17 +5129,17 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2" t="s">
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>363</v>
       </c>
@@ -5170,12 +5170,9 @@
       <c r="L40" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="O40" s="1" t="s">
         <v>166</v>
       </c>
@@ -5183,16 +5180,19 @@
         <v>166</v>
       </c>
       <c r="Q40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R40" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>367</v>
       </c>
@@ -5213,15 +5213,15 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>417</v>
       </c>
@@ -5242,17 +5242,17 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S42" s="1"/>
+      <c r="T42" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>393</v>
       </c>
@@ -5269,17 +5269,17 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="2" t="s">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>430</v>
       </c>
@@ -5298,15 +5298,15 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>323</v>
       </c>
@@ -5323,23 +5323,23 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2" t="s">
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="2" t="s">
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="S45" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>435</v>
       </c>
@@ -5356,19 +5356,19 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="1"/>
+      <c r="P46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>421</v>
       </c>
@@ -5387,17 +5387,17 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2" t="s">
+      <c r="S47" s="2"/>
+      <c r="T47" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>308</v>
       </c>
@@ -5414,17 +5414,17 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1" t="s">
+      <c r="O48" s="1"/>
+      <c r="P48" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>437</v>
       </c>
@@ -5443,17 +5443,17 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2" t="s">
+      <c r="N49" s="2"/>
+      <c r="O49" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>307</v>
       </c>
@@ -5470,17 +5470,17 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="1" t="s">
+      <c r="R50" s="1"/>
+      <c r="S50" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="S50" s="1"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>451</v>
       </c>
@@ -5497,17 +5497,17 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>339</v>
       </c>
@@ -5524,17 +5524,17 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1" t="s">
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>402</v>
       </c>
@@ -5553,15 +5553,15 @@
       <c r="L53" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>376</v>
       </c>
@@ -5582,15 +5582,15 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>428</v>
       </c>
@@ -5609,15 +5609,15 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>429</v>
       </c>
@@ -5636,15 +5636,15 @@
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>383</v>
       </c>
@@ -5663,15 +5663,15 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>373</v>
       </c>
@@ -5690,17 +5690,17 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="S58" s="1" t="s">
+      <c r="S58" s="1"/>
+      <c r="T58" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>432</v>
       </c>
@@ -5721,15 +5721,15 @@
         <v>485</v>
       </c>
       <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>405</v>
       </c>
@@ -5748,15 +5748,15 @@
       <c r="L60" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>385</v>
       </c>
@@ -5775,15 +5775,15 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>442</v>
       </c>
@@ -5802,15 +5802,15 @@
         <v>465</v>
       </c>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>427</v>
       </c>
@@ -5829,15 +5829,15 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>447</v>
       </c>
@@ -5854,17 +5854,17 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>412</v>
       </c>
@@ -5883,15 +5883,15 @@
         <v>488</v>
       </c>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>425</v>
       </c>
@@ -5908,17 +5908,17 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1" t="s">
+      <c r="N66" s="1"/>
+      <c r="O66" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>400</v>
       </c>
@@ -5937,15 +5937,15 @@
         <v>490</v>
       </c>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>440</v>
       </c>
@@ -5964,15 +5964,15 @@
         <v>491</v>
       </c>
       <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>455</v>
       </c>
@@ -5989,17 +5989,17 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S69" s="2"/>
+      <c r="T69" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>395</v>
       </c>
@@ -6016,17 +6016,17 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>391</v>
       </c>
@@ -6043,17 +6043,17 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>449</v>
       </c>
@@ -6070,17 +6070,17 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>445</v>
       </c>
@@ -6097,17 +6097,17 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="N73" s="2"/>
+      <c r="N73" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>403</v>
       </c>
@@ -6126,15 +6126,15 @@
       <c r="L74" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>386</v>
       </c>
@@ -6153,15 +6153,15 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>381</v>
       </c>
@@ -6180,15 +6180,15 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>410</v>
       </c>
@@ -6205,17 +6205,17 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
-      <c r="Q77" s="2" t="s">
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="R77" s="2"/>
       <c r="S77" s="2"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>453</v>
       </c>
@@ -6232,17 +6232,17 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-      <c r="Q78" s="1" t="s">
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="R78" s="1"/>
       <c r="S78" s="1"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>413</v>
       </c>
@@ -6259,17 +6259,17 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-      <c r="Q79" s="2" t="s">
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="R79" s="2"/>
       <c r="S79" s="2"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>397</v>
       </c>
@@ -6286,17 +6286,17 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1" t="s">
+      <c r="O80" s="1"/>
+      <c r="P80" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>388</v>
       </c>
@@ -6315,15 +6315,15 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>371</v>
       </c>
@@ -6342,35 +6342,35 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>510</v>
       </c>
@@ -14347,8 +14347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F00F41-39E6-4258-A890-A3B1BD3513EA}">
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14476,25 +14476,25 @@
       <c r="L2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="N2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -14535,25 +14535,25 @@
       <c r="L3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>164</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -14594,25 +14594,25 @@
       <c r="L4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="S4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -14653,25 +14653,25 @@
       <c r="L5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="S5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -14712,25 +14712,25 @@
       <c r="L6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="R6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -14771,25 +14771,25 @@
       <c r="L7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="P7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14830,25 +14830,25 @@
       <c r="L8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="O8" s="1" t="s">
         <v>166</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="R8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -14889,25 +14889,25 @@
       <c r="L9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>163</v>
       </c>
       <c r="P9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>111</v>
       </c>
       <c r="S9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -14948,17 +14948,14 @@
       <c r="L10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>165</v>
@@ -14967,6 +14964,9 @@
         <v>165</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -15007,14 +15007,11 @@
       <c r="L11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="N11" s="2" t="s">
         <v>166</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>168</v>
@@ -15023,9 +15020,12 @@
         <v>168</v>
       </c>
       <c r="R11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -15064,25 +15064,25 @@
       <c r="L12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="N12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="P12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -15123,25 +15123,25 @@
       <c r="L13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="P13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -15178,25 +15178,25 @@
       <c r="L14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="P14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -15237,25 +15237,25 @@
       <c r="L15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="O15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="Q15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -15296,29 +15296,29 @@
       <c r="L16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>78</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>226</v>
       </c>
@@ -15355,29 +15355,29 @@
       <c r="L17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="N17" s="2" t="s">
         <v>174</v>
       </c>
       <c r="O17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="Q17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>199</v>
       </c>
@@ -15414,29 +15414,29 @@
       <c r="L18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="P18" s="1" t="s">
         <v>166</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>187</v>
       </c>
@@ -15457,19 +15457,19 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="N19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="2"/>
+      <c r="T19" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>112</v>
       </c>
@@ -15500,15 +15500,15 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>229</v>
       </c>
@@ -15545,29 +15545,29 @@
       <c r="L21" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="O21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="Q21" s="2" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="S21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>224</v>
       </c>
@@ -15604,29 +15604,29 @@
       <c r="L22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>169</v>
       </c>
       <c r="Q22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>228</v>
       </c>
@@ -15663,9 +15663,6 @@
       <c r="L23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="N23" s="2" t="s">
         <v>166</v>
       </c>
@@ -15679,13 +15676,16 @@
         <v>166</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>232</v>
       </c>
@@ -15722,23 +15722,23 @@
       <c r="L24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
         <v>176</v>
       </c>
       <c r="S24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>213</v>
       </c>
@@ -15761,23 +15761,23 @@
       <c r="L25" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="O25" s="2" t="s">
         <v>166</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Q25" s="2"/>
+      <c r="Q25" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>239</v>
       </c>
@@ -15814,29 +15814,29 @@
       <c r="L26" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="N26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>280</v>
       </c>
@@ -15853,17 +15853,17 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2" t="s">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>278</v>
       </c>
@@ -15880,17 +15880,17 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>208</v>
       </c>
@@ -15927,29 +15927,29 @@
       <c r="L29" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="R29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>204</v>
       </c>
@@ -15972,15 +15972,12 @@
       <c r="L30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="P30" s="1" t="s">
         <v>166</v>
       </c>
@@ -15991,10 +15988,13 @@
         <v>166</v>
       </c>
       <c r="S30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T30" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>202</v>
       </c>
@@ -16025,15 +16025,15 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>249</v>
       </c>
@@ -16056,19 +16056,19 @@
       <c r="L32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="1"/>
+      <c r="P32" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1" t="s">
+      <c r="S32" s="1"/>
+      <c r="T32" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>297</v>
       </c>
@@ -16085,21 +16085,21 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="2"/>
+      <c r="P33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="R33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>284</v>
       </c>
@@ -16118,15 +16118,15 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>265</v>
       </c>
@@ -16145,17 +16145,17 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2" t="s">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>263</v>
       </c>
@@ -16174,15 +16174,15 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>215</v>
       </c>
@@ -16199,21 +16199,21 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2" t="s">
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="S37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T37" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>282</v>
       </c>
@@ -16230,17 +16230,17 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="1" t="s">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>272</v>
       </c>
@@ -16259,15 +16259,15 @@
         <v>479</v>
       </c>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>259</v>
       </c>
@@ -16288,19 +16288,19 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="1"/>
+      <c r="P40" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="1" t="s">
+      <c r="S40" s="1"/>
+      <c r="T40" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>270</v>
       </c>
@@ -16319,15 +16319,15 @@
         <v>482</v>
       </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>268</v>
       </c>
@@ -16346,15 +16346,15 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>244</v>
       </c>
@@ -16373,17 +16373,17 @@
       <c r="L43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S43" s="2"/>
+      <c r="T43" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>253</v>
       </c>
@@ -16400,17 +16400,17 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>247</v>
       </c>
@@ -16427,17 +16427,17 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>255</v>
       </c>
@@ -16456,15 +16456,15 @@
       <c r="L46" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>276</v>
       </c>
@@ -16483,15 +16483,15 @@
         <v>166</v>
       </c>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>262</v>
       </c>
@@ -16510,15 +16510,15 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>295</v>
       </c>
@@ -16535,19 +16535,19 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2" t="s">
+      <c r="O49" s="2"/>
+      <c r="P49" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>290</v>
       </c>
@@ -16566,15 +16566,15 @@
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>290</v>
       </c>
@@ -16591,17 +16591,17 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="2" t="s">
+      <c r="O51" s="2"/>
+      <c r="P51" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>293</v>
       </c>
@@ -16618,17 +16618,17 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>274</v>
       </c>
@@ -16647,15 +16647,15 @@
         <v>486</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>286</v>
       </c>
@@ -16674,15 +16674,15 @@
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>288</v>
       </c>
@@ -16709,7 +16709,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>511</v>
       </c>
